--- a/documents/Phil database design.xlsx
+++ b/documents/Phil database design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JWei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JWei\Desktop\Phil\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="83">
   <si>
     <t>meal</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>auto increase</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -130,10 +126,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>auto increase</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>amount</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -303,6 +295,65 @@
   <si>
     <t>boss=0, staff=1</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto increment</t>
   </si>
 </sst>
 </file>
@@ -693,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -740,108 +791,108 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -871,91 +922,91 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -985,49 +1036,49 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1057,230 +1108,233 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29">
         <v>10</v>
       </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
         <v>30</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    </row>
+    <row r="40" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>35</v>
+      <c r="A44" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1309,233 +1363,224 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>46</v>
+      <c r="A48" t="s">
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
-      </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
       </c>
       <c r="E57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="B62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
         <v>22</v>
       </c>
-      <c r="B65" t="s">
-        <v>23</v>
-      </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1565,57 +1610,63 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
         <v>22</v>
       </c>
-      <c r="B72" t="s">
-        <v>23</v>
+      <c r="D72" t="s">
+        <v>49</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1645,80 +1696,160 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" t="s">
         <v>67</v>
       </c>
-      <c r="B79" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D79">
+      <c r="D86">
         <v>1</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E86" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>63</v>
       </c>
-      <c r="B80" t="s">
-        <v>60</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="B88" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>65</v>
-      </c>
-      <c r="B81" t="s">
-        <v>66</v>
-      </c>
-      <c r="E81" t="s">
-        <v>61</v>
+      <c r="E88" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Phil database design.xlsx
+++ b/documents/Phil database design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JWei\Desktop\Phil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Phil-POS\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="85">
   <si>
     <t>meal</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -354,6 +354,14 @@
   </si>
   <si>
     <t>auto increment</t>
+  </si>
+  <si>
+    <t>subtract order.discount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -746,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1144,6 +1152,9 @@
       <c r="B30" t="s">
         <v>13</v>
       </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +1297,7 @@
         <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
